--- a/test/sprint 1/พี่ปิ่ง/test.xlsx
+++ b/test/sprint 1/พี่ปิ่ง/test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2378251F-0AC9-46CA-BA22-040B1F30C34E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7788" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Admin login" sheetId="6" r:id="rId1"/>
     <sheet name="Admin register" sheetId="7" r:id="rId2"/>
     <sheet name="Userprofile" sheetId="8" r:id="rId3"/>
-    <sheet name="ยี่ห้อรถ" sheetId="1" r:id="rId4"/>
-    <sheet name=" รุ่น" sheetId="5" r:id="rId5"/>
-    <sheet name="เพิ่มผู้ใช้งาน" sheetId="2" r:id="rId6"/>
-    <sheet name="อะไหล่" sheetId="3" r:id="rId7"/>
-    <sheet name="ชื่อยี่ห้ออะไหล่" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="ยี่ห้อรถ" sheetId="1" r:id="rId5"/>
+    <sheet name=" รุ่น" sheetId="5" r:id="rId6"/>
+    <sheet name="เพิ่มผู้ใช้งาน" sheetId="2" r:id="rId7"/>
+    <sheet name="อะไหล่" sheetId="3" r:id="rId8"/>
+    <sheet name="ชื่อยี่ห้ออะไหล่" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="364">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -1030,9 +1030,6 @@
     <t>ในช่องอีเมล์ มีคำว่า อีเมล์</t>
   </si>
   <si>
-    <t>ในช่องอีเมล์  มีคำว่า อีเมล์</t>
-  </si>
-  <si>
     <t>ในช่องยืนยันรหัสผ่าน  มีคำว่า ยืนยันรหัสผ่าน</t>
   </si>
   <si>
@@ -1078,16 +1075,10 @@
     <t>ใช้ชื่อซ่ำแล้ว กด สมัคร</t>
   </si>
   <si>
-    <t>ใช้รหัสผ่านซ่ำแล้ว กด สมัคร</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
     <t>step-1 E-mail Address</t>
-  </si>
-  <si>
-    <t>No response</t>
   </si>
   <si>
     <t>response</t>
@@ -1225,9 +1216,6 @@
     <t>step-3 Address  ผู้ใช้งาน</t>
   </si>
   <si>
-    <t>ใช้ชื่อซ่ำแล้ว กด Next</t>
-  </si>
-  <si>
     <t>ลบค่าที่ reguine แล้ว กด Next</t>
   </si>
   <si>
@@ -1341,11 +1329,47 @@
   <si>
     <t>เบอร์โทรศัพท์ที่สามารถติดต่อได้*  ภายในช่องต้องมีคำว่า เบอร์โทรศัพท์ที่สามารถติดต่อได้</t>
   </si>
+  <si>
+    <t>iconอยู่ใกล้ เมนู</t>
+  </si>
+  <si>
+    <t>ภาษาไทย</t>
+  </si>
+  <si>
+    <t>ยังไม่ทำ</t>
+  </si>
+  <si>
+    <t>กรอกชื่อ แล้วกดส่ง แจ้งเตือน กรุณากรอกรหัสผ่าน  แล้วถ้าเปลี่ยนกรอกรหัสผ่าน แจ้งเตือนกรุณารหัสผ่านไม่หาย</t>
+  </si>
+  <si>
+    <t xml:space="preserve">response ipad ตก </t>
+  </si>
+  <si>
+    <t>ดอกจันแดงตรง text form ที่บังคับกรอกไม่มี</t>
+  </si>
+  <si>
+    <t>error แจ้งเตือนไม่เป็นสีแดง</t>
+  </si>
+  <si>
+    <t>เขียนผิด</t>
+  </si>
+  <si>
+    <t>ในช่องรหัสผ่าน  มีคำว่า รหัสผ่าน</t>
+  </si>
+  <si>
+    <t>สีดำ</t>
+  </si>
+  <si>
+    <t>ชื่อหัวข้อผิด</t>
+  </si>
+  <si>
+    <t>รูปไม่ยังใช้ไม่ได้</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1549,7 +1573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
@@ -1575,16 +1599,34 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1594,6 +1636,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1614,37 +1665,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="1" xr:uid="{F09578AA-A8F4-43E7-89AE-47A05FDC0B37}"/>
+    <cellStyle name="Style 1" xfId="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1921,49 +1949,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E950106-5E00-4850-8EDC-AB7FA21CF4BE}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" customWidth="1"/>
-    <col min="3" max="3" width="86.796875" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" customWidth="1"/>
-    <col min="6" max="6" width="16.296875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="86.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1976,181 +2004,207 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>269</v>
+      <c r="B9" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>352</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>226</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>225</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3" t="s">
         <v>236</v>
       </c>
@@ -2158,23 +2212,27 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
         <v>238</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
         <v>237</v>
       </c>
@@ -2182,23 +2240,27 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3" t="s">
         <v>228</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3" t="s">
         <v>230</v>
       </c>
@@ -2206,65 +2268,91 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3" t="s">
         <v>241</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3" t="s">
         <v>240</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3" t="s">
         <v>242</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="E27" s="35">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2278,493 +2366,583 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78657991-CBB7-4E48-A555-46F112EF2E7B}">
-  <dimension ref="A1:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="3" width="88.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="88.375" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28" t="s">
-        <v>272</v>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="s">
-        <v>272</v>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28" t="s">
-        <v>272</v>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28" t="s">
-        <v>272</v>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28" t="s">
-        <v>272</v>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>11</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>12</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
         <v>13</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>14</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>15</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>16</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>15</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>17</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>16</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>18</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
-        <v>17</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="28" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>19</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>18</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="28" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>20</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>21</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>19</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="28" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>22</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <v>20</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>23</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>21</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="28" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>24</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>25</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14">
+        <v>1</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>22</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>26</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <v>23</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>27</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
-        <v>24</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>28</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>29</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <v>26</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>30</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
-        <v>27</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="28" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>31</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
-        <v>28</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>32</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
-        <v>29</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>33</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>30</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>34</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
-        <v>31</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>32</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
-        <v>33</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
-        <v>34</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
         <v>35</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="28" t="s">
-        <v>268</v>
-      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2778,50 +2956,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45332B7-E4F1-4267-8BEE-5623395F6456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD104"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="29.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="127.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.8984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="29.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="127.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2834,577 +3012,649 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="14" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
       <c r="F5" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="14" t="s">
         <v>219</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
         <v>221</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>273</v>
-      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>362</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>276</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="16"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>275</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>273</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>272</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>351</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>278</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="3"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>287</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>288</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="3"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D24" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>290</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="3"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="3"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="3"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="3"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="3"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" s="3"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="3"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D35" s="3"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="3"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="28" t="s">
-        <v>317</v>
-      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="3"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="3"/>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A39" s="3"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A40" s="3"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A41" s="3"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="3"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="3"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="D43" s="3"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="3"/>
-      <c r="B44" s="16" t="s">
-        <v>316</v>
+      <c r="B44" s="18" t="s">
+        <v>313</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="3"/>
-      <c r="B45" s="16"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="3"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" s="3"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" s="3"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A49" s="3"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A50" s="3"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A51" s="3"/>
-      <c r="B51" s="16"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A52" s="3"/>
-      <c r="B52" s="16"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A53" s="3"/>
-      <c r="B53" s="16"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A54" s="3"/>
-      <c r="B54" s="16"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A55" s="3"/>
-      <c r="B55" s="16"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -19788,11 +20038,11 @@
       <c r="XFC55" s="7"/>
       <c r="XFD55" s="7"/>
     </row>
-    <row r="56" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A56" s="3"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -36176,11 +36426,11 @@
       <c r="XFC56" s="7"/>
       <c r="XFD56" s="7"/>
     </row>
-    <row r="57" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A57" s="3"/>
-      <c r="B57" s="16"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -52564,11 +52814,11 @@
       <c r="XFC57" s="7"/>
       <c r="XFD57" s="7"/>
     </row>
-    <row r="58" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A58" s="3"/>
-      <c r="B58" s="16"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -68952,489 +69202,541 @@
       <c r="XFC58" s="7"/>
       <c r="XFD58" s="7"/>
     </row>
-    <row r="59" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A59" s="3"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A60" s="3"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="18"/>
       <c r="C60" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A61" s="3"/>
-      <c r="B61" s="16"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A62" s="3"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="18"/>
       <c r="C62" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A63" s="3"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:16384" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:16384" x14ac:dyDescent="0.5">
       <c r="A64" s="3"/>
-      <c r="B64" s="16"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A65" s="3"/>
-      <c r="B65" s="16" t="s">
-        <v>319</v>
+      <c r="B65" s="18" t="s">
+        <v>315</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>316</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A66" s="3"/>
-      <c r="B66" s="16"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>317</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A67" s="3"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A68" s="3"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D68" s="3"/>
+        <v>319</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A69" s="3"/>
-      <c r="B69" s="16"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>320</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A70" s="3"/>
-      <c r="B70" s="16"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>327</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A71" s="3"/>
-      <c r="B71" s="16"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D71" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A72" s="3"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D72" s="3"/>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A73" s="3"/>
-      <c r="B73" s="16"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D73" s="3"/>
+        <v>322</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A74" s="3"/>
-      <c r="B74" s="16"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A75" s="3"/>
-      <c r="B75" s="16"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>328</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A76" s="3"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D76" s="3"/>
+        <v>323</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A77" s="3"/>
-      <c r="B77" s="16"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D77" s="3"/>
+        <v>324</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A78" s="3"/>
-      <c r="B78" s="16"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D78" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A79" s="3"/>
-      <c r="B79" s="16"/>
+      <c r="B79" s="18"/>
       <c r="C79" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A80" s="3"/>
-      <c r="B80" s="16"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D80" s="3"/>
+        <v>337</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A81" s="3"/>
-      <c r="B81" s="16"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D81" s="3"/>
+        <v>332</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A82" s="3"/>
-      <c r="B82" s="16"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A83" s="3"/>
-      <c r="B83" s="16"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D83" s="3"/>
+        <v>333</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A84" s="3"/>
-      <c r="B84" s="16"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A85" s="3"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D85" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A86" s="3"/>
-      <c r="B86" s="16"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A87" s="3"/>
-      <c r="B87" s="16"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D87" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A88" s="3"/>
-      <c r="B88" s="16"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A89" s="3"/>
-      <c r="B89" s="16"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D89" s="3"/>
+        <v>338</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A90" s="3"/>
-      <c r="B90" s="16"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A91" s="3"/>
-      <c r="B91" s="16"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D91" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A92" s="3"/>
-      <c r="B92" s="16"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D92" s="3"/>
+        <v>341</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A93" s="3"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D93" s="3"/>
+        <v>342</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A94" s="3"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D94" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A95" s="3"/>
-      <c r="B95" s="16"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D95" s="3"/>
+        <v>349</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A96" s="3"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D96" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A97" s="3"/>
-      <c r="B97" s="16" t="s">
-        <v>348</v>
+      <c r="B97" s="18" t="s">
+        <v>344</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A98" s="3"/>
-      <c r="B98" s="16"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A99" s="3"/>
-      <c r="B99" s="16"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A100" s="3"/>
-      <c r="B100" s="16"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A101" s="3"/>
-      <c r="B101" s="16"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A102" s="3"/>
-      <c r="B102" s="16"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A103" s="3"/>
-      <c r="B103" s="16"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A104" s="3"/>
-      <c r="B104" s="16"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -69455,43 +69757,55 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView topLeftCell="A68" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="3"/>
-    <col min="2" max="2" width="19.296875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="3"/>
+    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="84.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.3984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" style="3" customWidth="1"/>
-    <col min="7" max="10" width="8.796875" style="3"/>
+    <col min="4" max="4" width="19.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="3" customWidth="1"/>
+    <col min="7" max="10" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -69511,11 +69825,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -69525,11 +69839,11 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
@@ -69537,11 +69851,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
@@ -69549,11 +69863,11 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
@@ -69561,11 +69875,11 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
@@ -69573,11 +69887,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
@@ -69585,11 +69899,11 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
@@ -69597,11 +69911,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
@@ -69609,11 +69923,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
@@ -69621,11 +69935,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
@@ -69633,11 +69947,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="8" t="s">
         <v>149</v>
       </c>
@@ -69645,9 +69959,9 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A15" s="7"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="8" t="s">
         <v>148</v>
       </c>
@@ -69655,11 +69969,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
@@ -69667,11 +69981,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
@@ -69679,11 +69993,11 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
@@ -69691,11 +70005,11 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
@@ -69703,11 +70017,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
@@ -69715,11 +70029,11 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
@@ -69727,11 +70041,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
@@ -69739,11 +70053,11 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>19</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
@@ -69751,11 +70065,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>20</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
@@ -69763,11 +70077,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>21</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8" t="s">
         <v>25</v>
       </c>
@@ -69775,9 +70089,9 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A26" s="7"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="8" t="s">
         <v>146</v>
       </c>
@@ -69785,9 +70099,9 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A27" s="7"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="8" t="s">
         <v>150</v>
       </c>
@@ -69795,9 +70109,9 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A28" s="7"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8" t="s">
         <v>145</v>
       </c>
@@ -69805,9 +70119,9 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A29" s="7"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="8" t="s">
         <v>147</v>
       </c>
@@ -69815,11 +70129,11 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A30" s="7">
         <v>22</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8" t="s">
         <v>144</v>
       </c>
@@ -69827,11 +70141,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A31" s="7">
         <v>23</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8" t="s">
         <v>27</v>
       </c>
@@ -69839,11 +70153,11 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A32" s="7">
         <v>24</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="8" t="s">
         <v>28</v>
       </c>
@@ -69851,11 +70165,11 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A33" s="7">
         <v>25</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="8" t="s">
         <v>29</v>
       </c>
@@ -69863,11 +70177,11 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A34" s="7">
         <v>26</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="8" t="s">
         <v>60</v>
       </c>
@@ -69875,11 +70189,11 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A35" s="7">
         <v>27</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -69889,11 +70203,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A36" s="7">
         <v>28</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="8" t="s">
         <v>120</v>
       </c>
@@ -69901,11 +70215,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A37" s="7">
         <v>29</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8" t="s">
         <v>119</v>
       </c>
@@ -69913,11 +70227,11 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A38" s="7">
         <v>30</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8" t="s">
         <v>121</v>
       </c>
@@ -69925,11 +70239,11 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A39" s="7">
         <v>31</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8" t="s">
         <v>151</v>
       </c>
@@ -69937,11 +70251,11 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A40" s="7">
         <v>32</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="8" t="s">
         <v>123</v>
       </c>
@@ -69949,11 +70263,11 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A41" s="7">
         <v>33</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8" t="s">
         <v>124</v>
       </c>
@@ -69961,9 +70275,9 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A42" s="7"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8" t="s">
         <v>152</v>
       </c>
@@ -69971,11 +70285,11 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A43" s="7">
         <v>34</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8" t="s">
         <v>153</v>
       </c>
@@ -69983,11 +70297,11 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A44" s="7">
         <v>35</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8" t="s">
         <v>126</v>
       </c>
@@ -69995,11 +70309,11 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A45" s="7">
         <v>36</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="8" t="s">
         <v>127</v>
       </c>
@@ -70007,11 +70321,11 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A46" s="7">
         <v>37</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="8" t="s">
         <v>128</v>
       </c>
@@ -70019,11 +70333,11 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A47" s="7">
         <v>38</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="8" t="s">
         <v>130</v>
       </c>
@@ -70031,11 +70345,11 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A48" s="7">
         <v>39</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="8" t="s">
         <v>129</v>
       </c>
@@ -70043,11 +70357,11 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A49" s="7">
         <v>40</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="7" t="s">
         <v>131</v>
       </c>
@@ -70055,11 +70369,11 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A50" s="7">
         <v>41</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="7" t="s">
         <v>134</v>
       </c>
@@ -70067,9 +70381,9 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A51" s="7"/>
-      <c r="B51" s="21"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="7" t="s">
         <v>154</v>
       </c>
@@ -70077,11 +70391,11 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A52" s="7">
         <v>42</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="7" t="s">
         <v>135</v>
       </c>
@@ -70089,11 +70403,11 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A53" s="7">
         <v>43</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="7" t="s">
         <v>136</v>
       </c>
@@ -70101,9 +70415,9 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A54" s="7"/>
-      <c r="B54" s="21"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="7" t="s">
         <v>155</v>
       </c>
@@ -70111,11 +70425,11 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A55" s="7">
         <v>44</v>
       </c>
-      <c r="B55" s="21"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="7" t="s">
         <v>132</v>
       </c>
@@ -70123,11 +70437,11 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A56" s="7">
         <v>45</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7" t="s">
         <v>133</v>
       </c>
@@ -70135,11 +70449,11 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A57" s="7">
         <v>46</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="8" t="s">
         <v>158</v>
       </c>
@@ -70147,11 +70461,11 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A58" s="7">
         <v>47</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="8" t="s">
         <v>157</v>
       </c>
@@ -70159,11 +70473,11 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A59" s="7">
         <v>48</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="8" t="s">
         <v>156</v>
       </c>
@@ -70171,11 +70485,11 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A60" s="7">
         <v>49</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="10" t="s">
         <v>159</v>
       </c>
@@ -70183,11 +70497,11 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A61" s="7">
         <v>50</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="8" t="s">
         <v>49</v>
       </c>
@@ -70195,11 +70509,11 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A62" s="7">
         <v>51</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="8" t="s">
         <v>50</v>
       </c>
@@ -70207,11 +70521,11 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A63" s="7">
         <v>52</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -70221,11 +70535,11 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A64" s="7">
         <v>53</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="8" t="s">
         <v>120</v>
       </c>
@@ -70233,11 +70547,11 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A65" s="7">
         <v>54</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="8" t="s">
         <v>137</v>
       </c>
@@ -70245,11 +70559,11 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A66" s="7">
         <v>55</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="8" t="s">
         <v>121</v>
       </c>
@@ -70257,11 +70571,11 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A67" s="7">
         <v>56</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="8" t="s">
         <v>122</v>
       </c>
@@ -70269,11 +70583,11 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A68" s="7">
         <v>57</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="8" t="s">
         <v>138</v>
       </c>
@@ -70281,11 +70595,11 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A69" s="7">
         <v>58</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="8" t="s">
         <v>124</v>
       </c>
@@ -70293,11 +70607,11 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A70" s="7">
         <v>59</v>
       </c>
-      <c r="B70" s="18"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="8" t="s">
         <v>125</v>
       </c>
@@ -70305,11 +70619,11 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A71" s="7">
         <v>60</v>
       </c>
-      <c r="B71" s="18"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="8" t="s">
         <v>126</v>
       </c>
@@ -70317,11 +70631,11 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A72" s="7">
         <v>61</v>
       </c>
-      <c r="B72" s="18"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="8" t="s">
         <v>216</v>
       </c>
@@ -70329,11 +70643,11 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A73" s="7">
         <v>62</v>
       </c>
-      <c r="B73" s="18"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="8" t="s">
         <v>215</v>
       </c>
@@ -70341,11 +70655,11 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A74" s="7">
         <v>63</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="8" t="s">
         <v>139</v>
       </c>
@@ -70353,11 +70667,11 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A75" s="7">
         <v>64</v>
       </c>
-      <c r="B75" s="18"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="8" t="s">
         <v>140</v>
       </c>
@@ -70365,11 +70679,11 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A76" s="7">
         <v>65</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="8" t="s">
         <v>141</v>
       </c>
@@ -70377,11 +70691,11 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A77" s="7">
         <v>66</v>
       </c>
-      <c r="B77" s="18"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="8" t="s">
         <v>143</v>
       </c>
@@ -70389,11 +70703,11 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A78" s="7">
         <v>67</v>
       </c>
-      <c r="B78" s="18"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="7" t="s">
         <v>142</v>
       </c>
@@ -70401,11 +70715,11 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A79" s="7">
         <v>68</v>
       </c>
-      <c r="B79" s="18"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="8" t="s">
         <v>160</v>
       </c>
@@ -70413,11 +70727,11 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A80" s="7">
         <v>69</v>
       </c>
-      <c r="B80" s="18"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="8" t="s">
         <v>161</v>
       </c>
@@ -70425,11 +70739,11 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A81" s="7">
         <v>70</v>
       </c>
-      <c r="B81" s="18"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="8" t="s">
         <v>47</v>
       </c>
@@ -70437,11 +70751,11 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A82" s="7">
         <v>71</v>
       </c>
-      <c r="B82" s="18"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="10" t="s">
         <v>159</v>
       </c>
@@ -70449,11 +70763,11 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A83" s="7">
         <v>72</v>
       </c>
-      <c r="B83" s="18"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="8" t="s">
         <v>49</v>
       </c>
@@ -70461,11 +70775,11 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A84" s="7">
         <v>73</v>
       </c>
-      <c r="B84" s="18"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="8" t="s">
         <v>50</v>
       </c>
@@ -70473,11 +70787,11 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A85" s="7">
         <v>74</v>
       </c>
-      <c r="B85" s="18"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
         <v>43</v>
       </c>
@@ -70485,11 +70799,11 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A86" s="7">
         <v>75</v>
       </c>
-      <c r="B86" s="18"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
         <v>44</v>
       </c>
@@ -70497,11 +70811,11 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A87" s="7">
         <v>76</v>
       </c>
-      <c r="B87" s="18"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
         <v>8</v>
       </c>
@@ -70509,11 +70823,11 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A88" s="7">
         <v>77</v>
       </c>
-      <c r="B88" s="19"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="9" t="s">
         <v>57</v>
       </c>
@@ -70521,11 +70835,11 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A89" s="7">
         <v>78</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="7" t="s">
@@ -70535,11 +70849,11 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A90" s="7">
         <v>79</v>
       </c>
-      <c r="B90" s="16"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="7" t="s">
         <v>52</v>
       </c>
@@ -70547,11 +70861,11 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A91" s="7">
         <v>80</v>
       </c>
-      <c r="B91" s="16"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="7" t="s">
         <v>103</v>
       </c>
@@ -70559,11 +70873,11 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A92" s="7">
         <v>81</v>
       </c>
-      <c r="B92" s="16"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="7" t="s">
         <v>101</v>
       </c>
@@ -70571,11 +70885,11 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A93" s="7">
         <v>82</v>
       </c>
-      <c r="B93" s="16"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="7" t="s">
         <v>102</v>
       </c>
@@ -70583,11 +70897,11 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A94" s="7">
         <v>83</v>
       </c>
-      <c r="B94" s="16"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="7" t="s">
         <v>59</v>
       </c>
@@ -70595,11 +70909,11 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A95" s="7">
         <v>84</v>
       </c>
-      <c r="B95" s="16"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="7" t="s">
         <v>54</v>
       </c>
@@ -70607,11 +70921,11 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A96" s="7">
         <v>85</v>
       </c>
-      <c r="B96" s="16"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="7" t="s">
         <v>53</v>
       </c>
@@ -70619,11 +70933,11 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A97" s="7">
         <v>86</v>
       </c>
-      <c r="B97" s="16"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="8" t="s">
         <v>55</v>
       </c>
@@ -70633,11 +70947,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A98" s="7">
         <v>87</v>
       </c>
-      <c r="B98" s="16"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="8" t="s">
         <v>56</v>
       </c>
@@ -70658,43 +70972,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1DBD10-F5AC-4AC3-8E7D-F57431C0080F}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="84.296875" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="84.25" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="21.796875" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -70714,11 +71028,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -70728,9 +71042,9 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A5" s="7"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8" t="s">
         <v>165</v>
       </c>
@@ -70738,11 +71052,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8" t="s">
         <v>164</v>
       </c>
@@ -70750,11 +71064,11 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -70762,11 +71076,11 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
@@ -70774,11 +71088,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
@@ -70786,11 +71100,11 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
@@ -70798,11 +71112,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -70810,11 +71124,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8" t="s">
         <v>149</v>
       </c>
@@ -70822,9 +71136,9 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A13" s="7"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8" t="s">
         <v>148</v>
       </c>
@@ -70832,11 +71146,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
@@ -70844,11 +71158,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
@@ -70856,11 +71170,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
@@ -70868,11 +71182,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8" t="s">
         <v>166</v>
       </c>
@@ -70880,11 +71194,11 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>18</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
@@ -70892,11 +71206,11 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>19</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8" t="s">
         <v>32</v>
       </c>
@@ -70904,11 +71218,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>20</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
@@ -70916,11 +71230,11 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>21</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
@@ -70928,9 +71242,9 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A22" s="7"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8" t="s">
         <v>146</v>
       </c>
@@ -70938,9 +71252,9 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A23" s="7"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="s">
         <v>150</v>
       </c>
@@ -70948,9 +71262,9 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A24" s="7"/>
-      <c r="B24" s="21"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8" t="s">
         <v>145</v>
       </c>
@@ -70958,9 +71272,9 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A25" s="7"/>
-      <c r="B25" s="21"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8" t="s">
         <v>147</v>
       </c>
@@ -70968,11 +71282,11 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="8" t="s">
         <v>144</v>
       </c>
@@ -70980,11 +71294,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>23</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
@@ -70992,11 +71306,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
         <v>24</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8" t="s">
         <v>167</v>
       </c>
@@ -71004,11 +71318,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A29" s="7">
         <v>25</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="8" t="s">
         <v>169</v>
       </c>
@@ -71016,9 +71330,9 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A30" s="7"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8" t="s">
         <v>168</v>
       </c>
@@ -71026,11 +71340,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A31" s="7">
         <v>26</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
@@ -71038,11 +71352,11 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A32" s="7">
         <v>27</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -71052,9 +71366,9 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A33" s="7"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="8" t="s">
         <v>172</v>
       </c>
@@ -71062,11 +71376,11 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A34" s="7">
         <v>29</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="8" t="s">
         <v>170</v>
       </c>
@@ -71074,11 +71388,11 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A35" s="7">
         <v>30</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8" t="s">
         <v>121</v>
       </c>
@@ -71086,11 +71400,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A36" s="7">
         <v>31</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="8" t="s">
         <v>151</v>
       </c>
@@ -71098,11 +71412,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A37" s="7">
         <v>32</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8" t="s">
         <v>123</v>
       </c>
@@ -71110,9 +71424,9 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A38" s="7"/>
-      <c r="B38" s="21"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8" t="s">
         <v>173</v>
       </c>
@@ -71120,9 +71434,9 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A39" s="7"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8" t="s">
         <v>174</v>
       </c>
@@ -71130,9 +71444,9 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A40" s="7"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="8" t="s">
         <v>124</v>
       </c>
@@ -71140,11 +71454,11 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A41" s="7">
         <v>34</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8" t="s">
         <v>175</v>
       </c>
@@ -71152,9 +71466,9 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A42" s="7"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="11" t="s">
         <v>191</v>
       </c>
@@ -71162,9 +71476,9 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A43" s="7"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="12" t="s">
         <v>182</v>
       </c>
@@ -71172,11 +71486,11 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A44" s="7">
         <v>35</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8" t="s">
         <v>176</v>
       </c>
@@ -71184,9 +71498,9 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A45" s="7"/>
-      <c r="B45" s="21"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="8" t="s">
         <v>177</v>
       </c>
@@ -71194,9 +71508,9 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A46" s="7"/>
-      <c r="B46" s="21"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="8" t="s">
         <v>178</v>
       </c>
@@ -71204,9 +71518,9 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A47" s="7"/>
-      <c r="B47" s="21"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="8" t="s">
         <v>179</v>
       </c>
@@ -71214,9 +71528,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A48" s="7"/>
-      <c r="B48" s="21"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="8" t="s">
         <v>180</v>
       </c>
@@ -71224,9 +71538,9 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A49" s="7"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="8" t="s">
         <v>189</v>
       </c>
@@ -71234,9 +71548,9 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A50" s="7"/>
-      <c r="B50" s="21"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="8" t="s">
         <v>190</v>
       </c>
@@ -71244,9 +71558,9 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A51" s="7"/>
-      <c r="B51" s="21"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="8" t="s">
         <v>181</v>
       </c>
@@ -71254,9 +71568,9 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A52" s="7"/>
-      <c r="B52" s="21"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="8" t="s">
         <v>183</v>
       </c>
@@ -71264,9 +71578,9 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A53" s="7"/>
-      <c r="B53" s="21"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="8" t="s">
         <v>184</v>
       </c>
@@ -71274,9 +71588,9 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A54" s="7"/>
-      <c r="B54" s="21"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="8" t="s">
         <v>185</v>
       </c>
@@ -71284,9 +71598,9 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A55" s="7"/>
-      <c r="B55" s="21"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="8" t="s">
         <v>186</v>
       </c>
@@ -71294,9 +71608,9 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A56" s="7"/>
-      <c r="B56" s="21"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="8" t="s">
         <v>187</v>
       </c>
@@ -71304,9 +71618,9 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A57" s="7"/>
-      <c r="B57" s="21"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="8" t="s">
         <v>188</v>
       </c>
@@ -71314,11 +71628,11 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A58" s="7">
         <v>48</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="8" t="s">
         <v>156</v>
       </c>
@@ -71326,11 +71640,11 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A59" s="7">
         <v>49</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="10" t="s">
         <v>192</v>
       </c>
@@ -71338,11 +71652,11 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A60" s="7">
         <v>50</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="8" t="s">
         <v>49</v>
       </c>
@@ -71350,11 +71664,11 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A61" s="7">
         <v>51</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="8" t="s">
         <v>193</v>
       </c>
@@ -71362,11 +71676,11 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A62" s="7">
         <v>52</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -71376,9 +71690,9 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A63" s="7"/>
-      <c r="B63" s="18"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="8" t="s">
         <v>195</v>
       </c>
@@ -71386,11 +71700,11 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A64" s="7">
         <v>53</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="8" t="s">
         <v>120</v>
       </c>
@@ -71398,11 +71712,11 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A65" s="7">
         <v>55</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="8" t="s">
         <v>196</v>
       </c>
@@ -71410,11 +71724,11 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A66" s="7">
         <v>56</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="8" t="s">
         <v>197</v>
       </c>
@@ -71422,11 +71736,11 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A67" s="7">
         <v>57</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="8" t="s">
         <v>198</v>
       </c>
@@ -71434,9 +71748,9 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A68" s="7"/>
-      <c r="B68" s="18"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="8" t="s">
         <v>173</v>
       </c>
@@ -71444,9 +71758,9 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A69" s="7"/>
-      <c r="B69" s="18"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="8" t="s">
         <v>199</v>
       </c>
@@ -71454,9 +71768,9 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A70" s="7"/>
-      <c r="B70" s="18"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="8" t="s">
         <v>124</v>
       </c>
@@ -71464,9 +71778,9 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A71" s="7"/>
-      <c r="B71" s="18"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="8" t="s">
         <v>200</v>
       </c>
@@ -71474,9 +71788,9 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A72" s="7"/>
-      <c r="B72" s="18"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="8" t="s">
         <v>201</v>
       </c>
@@ -71484,11 +71798,11 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A73" s="7">
         <v>34</v>
       </c>
-      <c r="B73" s="18"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="8" t="s">
         <v>175</v>
       </c>
@@ -71496,9 +71810,9 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A74" s="7"/>
-      <c r="B74" s="18"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="11" t="s">
         <v>191</v>
       </c>
@@ -71506,9 +71820,9 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A75" s="7"/>
-      <c r="B75" s="18"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="12" t="s">
         <v>182</v>
       </c>
@@ -71516,11 +71830,11 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A76" s="7">
         <v>35</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="8" t="s">
         <v>176</v>
       </c>
@@ -71528,9 +71842,9 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A77" s="7"/>
-      <c r="B77" s="18"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="8" t="s">
         <v>177</v>
       </c>
@@ -71538,9 +71852,9 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A78" s="7"/>
-      <c r="B78" s="18"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="8" t="s">
         <v>178</v>
       </c>
@@ -71548,9 +71862,9 @@
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
-    <row r="79" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A79" s="7"/>
-      <c r="B79" s="18"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="8" t="s">
         <v>179</v>
       </c>
@@ -71558,9 +71872,9 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A80" s="7"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="8" t="s">
         <v>180</v>
       </c>
@@ -71568,9 +71882,9 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
-    <row r="81" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A81" s="7"/>
-      <c r="B81" s="18"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="8" t="s">
         <v>189</v>
       </c>
@@ -71578,9 +71892,9 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A82" s="7"/>
-      <c r="B82" s="18"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="8" t="s">
         <v>190</v>
       </c>
@@ -71588,9 +71902,9 @@
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
-    <row r="83" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A83" s="7"/>
-      <c r="B83" s="18"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="8" t="s">
         <v>181</v>
       </c>
@@ -71598,9 +71912,9 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A84" s="7"/>
-      <c r="B84" s="18"/>
+      <c r="B84" s="24"/>
       <c r="C84" s="8" t="s">
         <v>183</v>
       </c>
@@ -71608,9 +71922,9 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A85" s="7"/>
-      <c r="B85" s="18"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="8" t="s">
         <v>184</v>
       </c>
@@ -71618,9 +71932,9 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A86" s="7"/>
-      <c r="B86" s="18"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="8" t="s">
         <v>185</v>
       </c>
@@ -71628,9 +71942,9 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
-    <row r="87" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A87" s="7"/>
-      <c r="B87" s="18"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="8" t="s">
         <v>186</v>
       </c>
@@ -71638,9 +71952,9 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A88" s="7"/>
-      <c r="B88" s="18"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="8" t="s">
         <v>187</v>
       </c>
@@ -71648,9 +71962,9 @@
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
-    <row r="89" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A89" s="7"/>
-      <c r="B89" s="18"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="8" t="s">
         <v>188</v>
       </c>
@@ -71658,11 +71972,11 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A90" s="7">
         <v>48</v>
       </c>
-      <c r="B90" s="18"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="8" t="s">
         <v>156</v>
       </c>
@@ -71670,11 +71984,11 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
-    <row r="91" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A91" s="7">
         <v>49</v>
       </c>
-      <c r="B91" s="18"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="10" t="s">
         <v>192</v>
       </c>
@@ -71682,11 +71996,11 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A92" s="7">
         <v>50</v>
       </c>
-      <c r="B92" s="18"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="8" t="s">
         <v>49</v>
       </c>
@@ -71694,11 +72008,11 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A93" s="7">
         <v>51</v>
       </c>
-      <c r="B93" s="18"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="8" t="s">
         <v>202</v>
       </c>
@@ -71706,11 +72020,11 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A94" s="7">
         <v>78</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -71720,11 +72034,11 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
-    <row r="95" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A95" s="7">
         <v>79</v>
       </c>
-      <c r="B95" s="16"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="7" t="s">
         <v>203</v>
       </c>
@@ -71732,11 +72046,11 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A96" s="7">
         <v>80</v>
       </c>
-      <c r="B96" s="16"/>
+      <c r="B96" s="18"/>
       <c r="C96" s="7" t="s">
         <v>103</v>
       </c>
@@ -71744,11 +72058,11 @@
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
-    <row r="97" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A97" s="7">
         <v>81</v>
       </c>
-      <c r="B97" s="16"/>
+      <c r="B97" s="18"/>
       <c r="C97" s="7" t="s">
         <v>101</v>
       </c>
@@ -71756,11 +72070,11 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A98" s="7">
         <v>82</v>
       </c>
-      <c r="B98" s="16"/>
+      <c r="B98" s="18"/>
       <c r="C98" s="7" t="s">
         <v>102</v>
       </c>
@@ -71768,11 +72082,11 @@
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
-    <row r="99" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A99" s="7">
         <v>83</v>
       </c>
-      <c r="B99" s="16"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="7" t="s">
         <v>59</v>
       </c>
@@ -71780,11 +72094,11 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A100" s="7">
         <v>84</v>
       </c>
-      <c r="B100" s="16"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="7" t="s">
         <v>54</v>
       </c>
@@ -71792,11 +72106,11 @@
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
-    <row r="101" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A101" s="7">
         <v>85</v>
       </c>
-      <c r="B101" s="16"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="7" t="s">
         <v>53</v>
       </c>
@@ -71804,11 +72118,11 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A102" s="7">
         <v>86</v>
       </c>
-      <c r="B102" s="16"/>
+      <c r="B102" s="18"/>
       <c r="C102" s="8" t="s">
         <v>55</v>
       </c>
@@ -71818,11 +72132,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A103" s="7">
         <v>87</v>
       </c>
-      <c r="B103" s="16"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="8" t="s">
         <v>56</v>
       </c>
@@ -71843,42 +72157,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F10719E-EF26-41B3-846D-E3CF939DA17E}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A87" sqref="A87:XFD92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.296875" customWidth="1"/>
-    <col min="3" max="3" width="86.09765625" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="86.125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.59765625" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+    <row r="2" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -71898,11 +72212,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -71912,11 +72226,11 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8" t="s">
         <v>64</v>
       </c>
@@ -71924,11 +72238,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8" t="s">
         <v>61</v>
       </c>
@@ -71936,11 +72250,11 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="s">
         <v>65</v>
       </c>
@@ -71948,11 +72262,11 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="8" t="s">
         <v>66</v>
       </c>
@@ -71960,11 +72274,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8" t="s">
         <v>67</v>
       </c>
@@ -71972,11 +72286,11 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="8" t="s">
         <v>68</v>
       </c>
@@ -71984,11 +72298,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
@@ -71996,11 +72310,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
@@ -72008,11 +72322,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
@@ -72020,11 +72334,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
@@ -72032,11 +72346,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
@@ -72044,11 +72358,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
@@ -72056,11 +72370,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
@@ -72068,11 +72382,11 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
@@ -72080,11 +72394,11 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
@@ -72092,11 +72406,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
@@ -72104,11 +72418,11 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
@@ -72116,11 +72430,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
@@ -72128,11 +72442,11 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
@@ -72140,11 +72454,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
@@ -72152,11 +72466,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8" t="s">
         <v>25</v>
       </c>
@@ -72164,11 +72478,11 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="8" t="s">
         <v>70</v>
       </c>
@@ -72176,11 +72490,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="8" t="s">
         <v>71</v>
       </c>
@@ -72188,11 +72502,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8" t="s">
         <v>72</v>
       </c>
@@ -72200,11 +72514,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="8" t="s">
         <v>69</v>
       </c>
@@ -72212,11 +72526,11 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8" t="s">
         <v>73</v>
       </c>
@@ -72224,11 +72538,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
@@ -72236,11 +72550,11 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -72250,11 +72564,11 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="10" t="s">
         <v>75</v>
       </c>
@@ -72262,11 +72576,11 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="8" t="s">
         <v>76</v>
       </c>
@@ -72274,11 +72588,11 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8" t="s">
         <v>77</v>
       </c>
@@ -72286,11 +72600,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="8" t="s">
         <v>79</v>
       </c>
@@ -72298,11 +72612,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8" t="s">
         <v>78</v>
       </c>
@@ -72310,11 +72624,11 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8" t="s">
         <v>80</v>
       </c>
@@ -72322,11 +72636,11 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8" t="s">
         <v>81</v>
       </c>
@@ -72334,11 +72648,11 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="8" t="s">
         <v>82</v>
       </c>
@@ -72346,11 +72660,11 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8" t="s">
         <v>83</v>
       </c>
@@ -72358,11 +72672,11 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8" t="s">
         <v>84</v>
       </c>
@@ -72370,11 +72684,11 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8" t="s">
         <v>86</v>
       </c>
@@ -72382,11 +72696,11 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
@@ -72394,11 +72708,11 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
@@ -72406,11 +72720,11 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="8" t="s">
         <v>46</v>
       </c>
@@ -72418,11 +72732,11 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="8" t="s">
         <v>88</v>
       </c>
@@ -72430,11 +72744,11 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="11" t="s">
         <v>89</v>
       </c>
@@ -72442,11 +72756,11 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -72454,11 +72768,11 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="8" t="s">
         <v>48</v>
       </c>
@@ -72466,11 +72780,11 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="8" t="s">
         <v>49</v>
       </c>
@@ -72478,11 +72792,11 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="8" t="s">
         <v>50</v>
       </c>
@@ -72490,11 +72804,11 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -72504,11 +72818,11 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="18"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="10" t="s">
         <v>75</v>
       </c>
@@ -72516,11 +72830,11 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="18"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="8" t="s">
         <v>90</v>
       </c>
@@ -72528,11 +72842,11 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="8" t="s">
         <v>91</v>
       </c>
@@ -72540,11 +72854,11 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="8" t="s">
         <v>92</v>
       </c>
@@ -72552,11 +72866,11 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="8" t="s">
         <v>93</v>
       </c>
@@ -72564,11 +72878,11 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="8" t="s">
         <v>94</v>
       </c>
@@ -72576,11 +72890,11 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="8" t="s">
         <v>95</v>
       </c>
@@ -72588,11 +72902,11 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="8" t="s">
         <v>96</v>
       </c>
@@ -72600,11 +72914,11 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="8" t="s">
         <v>97</v>
       </c>
@@ -72612,11 +72926,11 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="18"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="8" t="s">
         <v>84</v>
       </c>
@@ -72624,11 +72938,11 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="8" t="s">
         <v>86</v>
       </c>
@@ -72636,11 +72950,11 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="8" t="s">
         <v>85</v>
       </c>
@@ -72648,11 +72962,11 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="8" t="s">
         <v>87</v>
       </c>
@@ -72660,11 +72974,11 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="8" t="s">
         <v>46</v>
       </c>
@@ -72672,11 +72986,11 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="8" t="s">
         <v>88</v>
       </c>
@@ -72684,11 +72998,11 @@
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
-    <row r="69" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="11" t="s">
         <v>89</v>
       </c>
@@ -72696,11 +73010,11 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="18"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="8" t="s">
         <v>47</v>
       </c>
@@ -72708,11 +73022,11 @@
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="18"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="8" t="s">
         <v>48</v>
       </c>
@@ -72720,11 +73034,11 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="18"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="8" t="s">
         <v>49</v>
       </c>
@@ -72732,11 +73046,11 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="18"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="8" t="s">
         <v>50</v>
       </c>
@@ -72744,11 +73058,11 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="8" t="s">
         <v>43</v>
       </c>
@@ -72756,11 +73070,11 @@
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
-    <row r="75" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="18"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="8" t="s">
         <v>44</v>
       </c>
@@ -72768,11 +73082,11 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="19"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="8" t="s">
         <v>57</v>
       </c>
@@ -72780,11 +73094,11 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
-    <row r="77" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -72794,11 +73108,11 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="21"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="7" t="s">
         <v>98</v>
       </c>
@@ -72806,11 +73120,11 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="7" t="s">
         <v>99</v>
       </c>
@@ -72818,11 +73132,11 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="21"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="7" t="s">
         <v>100</v>
       </c>
@@ -72830,11 +73144,11 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="7" t="s">
         <v>102</v>
       </c>
@@ -72842,11 +73156,11 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="21"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="7" t="s">
         <v>59</v>
       </c>
@@ -72854,11 +73168,11 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="7" t="s">
         <v>54</v>
       </c>
@@ -72866,11 +73180,11 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="7" t="s">
         <v>53</v>
       </c>
@@ -72878,11 +73192,11 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="21"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="8" t="s">
         <v>55</v>
       </c>
@@ -72892,11 +73206,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="8" t="s">
         <v>56</v>
       </c>
@@ -72916,44 +73230,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0416CC3-5EBD-4222-9030-DC8C84A8F7FE}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="18.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="28.8984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -72973,11 +73287,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -72987,11 +73301,11 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
@@ -72999,11 +73313,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
@@ -73011,11 +73325,11 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
@@ -73023,11 +73337,11 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -73035,11 +73349,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
@@ -73047,11 +73361,11 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -73059,11 +73373,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
@@ -73071,11 +73385,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
@@ -73083,11 +73397,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
@@ -73095,11 +73409,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
@@ -73107,11 +73421,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
@@ -73119,11 +73433,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
@@ -73131,11 +73445,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
@@ -73143,11 +73457,11 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
@@ -73155,11 +73469,11 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
@@ -73167,11 +73481,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
@@ -73179,11 +73493,11 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
@@ -73191,11 +73505,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
@@ -73203,11 +73517,11 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
@@ -73215,11 +73529,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8" t="s">
         <v>26</v>
       </c>
@@ -73227,11 +73541,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
@@ -73239,11 +73553,11 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
@@ -73251,11 +73565,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="8" t="s">
         <v>29</v>
       </c>
@@ -73263,11 +73577,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8" t="s">
         <v>60</v>
       </c>
@@ -73275,11 +73589,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -73289,11 +73603,11 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
@@ -73301,11 +73615,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="8" t="s">
         <v>41</v>
       </c>
@@ -73313,11 +73627,11 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="8" t="s">
         <v>35</v>
       </c>
@@ -73325,11 +73639,11 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="8" t="s">
         <v>36</v>
       </c>
@@ -73337,11 +73651,11 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="8" t="s">
         <v>37</v>
       </c>
@@ -73349,11 +73663,11 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="8" t="s">
         <v>39</v>
       </c>
@@ -73361,11 +73675,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="8" t="s">
         <v>42</v>
       </c>
@@ -73373,11 +73687,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="8" t="s">
         <v>38</v>
       </c>
@@ -73385,11 +73699,11 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="8" t="s">
         <v>46</v>
       </c>
@@ -73397,11 +73711,11 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="8" t="s">
         <v>47</v>
       </c>
@@ -73409,11 +73723,11 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="8" t="s">
         <v>48</v>
       </c>
@@ -73421,11 +73735,11 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="8" t="s">
         <v>49</v>
       </c>
@@ -73433,11 +73747,11 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="8" t="s">
         <v>50</v>
       </c>
@@ -73445,9 +73759,9 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" s="7"/>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -73457,9 +73771,9 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A44" s="7"/>
-      <c r="B44" s="18"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="8" t="s">
         <v>40</v>
       </c>
@@ -73467,9 +73781,9 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" s="7"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="8" t="s">
         <v>41</v>
       </c>
@@ -73477,9 +73791,9 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" s="7"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="8" t="s">
         <v>210</v>
       </c>
@@ -73487,9 +73801,9 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" s="7"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="8" t="s">
         <v>209</v>
       </c>
@@ -73497,9 +73811,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" s="7"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="8" t="s">
         <v>206</v>
       </c>
@@ -73507,9 +73821,9 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" s="7"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="8" t="s">
         <v>208</v>
       </c>
@@ -73517,9 +73831,9 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" s="7"/>
-      <c r="B50" s="18"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="8" t="s">
         <v>207</v>
       </c>
@@ -73527,9 +73841,9 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" s="7"/>
-      <c r="B51" s="18"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="8" t="s">
         <v>38</v>
       </c>
@@ -73537,9 +73851,9 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" s="7"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="8" t="s">
         <v>46</v>
       </c>
@@ -73547,9 +73861,9 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" s="7"/>
-      <c r="B53" s="18"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="8" t="s">
         <v>47</v>
       </c>
@@ -73557,9 +73871,9 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" s="7"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="8" t="s">
         <v>48</v>
       </c>
@@ -73567,9 +73881,9 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" s="7"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="8" t="s">
         <v>49</v>
       </c>
@@ -73577,9 +73891,9 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" s="7"/>
-      <c r="B56" s="18"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="8" t="s">
         <v>50</v>
       </c>
@@ -73587,11 +73901,11 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" s="7">
         <v>43</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="5" t="s">
         <v>43</v>
       </c>
@@ -73599,11 +73913,11 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" s="7">
         <v>44</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="5" t="s">
         <v>44</v>
       </c>
@@ -73611,11 +73925,11 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59" s="7">
         <v>45</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="5" t="s">
         <v>8</v>
       </c>
@@ -73623,11 +73937,11 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" s="7">
         <v>46</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="5" t="s">
         <v>57</v>
       </c>
@@ -73635,11 +73949,11 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" s="7">
         <v>47</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -73649,11 +73963,11 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" s="7">
         <v>48</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="7" t="s">
         <v>52</v>
       </c>
@@ -73661,11 +73975,11 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" s="7">
         <v>49</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="7" t="s">
         <v>103</v>
       </c>
@@ -73673,11 +73987,11 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" s="7">
         <v>50</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="7" t="s">
         <v>101</v>
       </c>
@@ -73685,11 +73999,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A65" s="7">
         <v>51</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="7" t="s">
         <v>102</v>
       </c>
@@ -73697,11 +74011,11 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A66" s="7">
         <v>52</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="7" t="s">
         <v>59</v>
       </c>
@@ -73709,11 +74023,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A67" s="7">
         <v>53</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="7" t="s">
         <v>54</v>
       </c>
@@ -73721,11 +74035,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A68" s="7">
         <v>54</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="7" t="s">
         <v>53</v>
       </c>
@@ -73733,11 +74047,11 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A69" s="7">
         <v>55</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="8" t="s">
         <v>55</v>
       </c>
@@ -73747,11 +74061,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A70" s="7">
         <v>56</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="8" t="s">
         <v>56</v>
       </c>
@@ -73772,42 +74086,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ECC100-2AD8-4B42-B4B8-2CB15B1FD3D4}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B63" sqref="B63:B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.69921875" customWidth="1"/>
-    <col min="3" max="3" width="92.8984375" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="92.875" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="20.296875" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -73827,11 +74141,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -73841,11 +74155,11 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
@@ -73853,11 +74167,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
@@ -73865,11 +74179,11 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -73877,11 +74191,11 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
@@ -73889,11 +74203,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
@@ -73901,11 +74215,11 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
@@ -73913,11 +74227,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -73925,11 +74239,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
@@ -73937,11 +74251,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
@@ -73949,11 +74263,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
@@ -73961,11 +74275,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
@@ -73973,11 +74287,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
@@ -73985,11 +74299,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
@@ -73997,11 +74311,11 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
@@ -74009,11 +74323,11 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
@@ -74021,11 +74335,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
@@ -74033,11 +74347,11 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
@@ -74045,11 +74359,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
@@ -74057,11 +74371,11 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
@@ -74069,11 +74383,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="8" t="s">
         <v>27</v>
       </c>
@@ -74081,11 +74395,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="8" t="s">
         <v>106</v>
       </c>
@@ -74093,11 +74407,11 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="8" t="s">
         <v>107</v>
       </c>
@@ -74105,11 +74419,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="8" t="s">
         <v>108</v>
       </c>
@@ -74117,11 +74431,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8" t="s">
         <v>60</v>
       </c>
@@ -74129,11 +74443,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -74143,11 +74457,11 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="10" t="s">
         <v>110</v>
       </c>
@@ -74155,11 +74469,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="8" t="s">
         <v>40</v>
       </c>
@@ -74167,11 +74481,11 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="8" t="s">
         <v>111</v>
       </c>
@@ -74179,11 +74493,11 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="8" t="s">
         <v>112</v>
       </c>
@@ -74191,11 +74505,11 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="8" t="s">
         <v>113</v>
       </c>
@@ -74203,11 +74517,11 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8" t="s">
         <v>114</v>
       </c>
@@ -74215,11 +74529,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="8" t="s">
         <v>115</v>
       </c>
@@ -74227,11 +74541,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
-    <row r="37" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="8" t="s">
         <v>116</v>
       </c>
@@ -74239,11 +74553,11 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8" t="s">
         <v>38</v>
       </c>
@@ -74251,11 +74565,11 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8" t="s">
         <v>46</v>
       </c>
@@ -74263,11 +74577,11 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="8" t="s">
         <v>47</v>
       </c>
@@ -74275,11 +74589,11 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8" t="s">
         <v>48</v>
       </c>
@@ -74287,11 +74601,11 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="8" t="s">
         <v>49</v>
       </c>
@@ -74299,11 +74613,11 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="8" t="s">
         <v>50</v>
       </c>
@@ -74311,9 +74625,9 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A44" s="7"/>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -74323,9 +74637,9 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A45" s="7"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="10" t="s">
         <v>110</v>
       </c>
@@ -74333,9 +74647,9 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A46" s="7"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="8" t="s">
         <v>40</v>
       </c>
@@ -74343,9 +74657,9 @@
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A47" s="7"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="8" t="s">
         <v>111</v>
       </c>
@@ -74353,9 +74667,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A48" s="7"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="8" t="s">
         <v>212</v>
       </c>
@@ -74363,9 +74677,9 @@
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A49" s="7"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="8" t="s">
         <v>213</v>
       </c>
@@ -74373,9 +74687,9 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A50" s="7"/>
-      <c r="B50" s="18"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="8" t="s">
         <v>214</v>
       </c>
@@ -74383,9 +74697,9 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A51" s="7"/>
-      <c r="B51" s="18"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="8" t="s">
         <v>115</v>
       </c>
@@ -74393,9 +74707,9 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A52" s="7"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="8" t="s">
         <v>116</v>
       </c>
@@ -74403,9 +74717,9 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A53" s="7"/>
-      <c r="B53" s="18"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="8" t="s">
         <v>38</v>
       </c>
@@ -74413,9 +74727,9 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A54" s="7"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="8" t="s">
         <v>46</v>
       </c>
@@ -74423,9 +74737,9 @@
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A55" s="7"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="8" t="s">
         <v>47</v>
       </c>
@@ -74433,9 +74747,9 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A56" s="7"/>
-      <c r="B56" s="18"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="8" t="s">
         <v>48</v>
       </c>
@@ -74443,9 +74757,9 @@
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A57" s="7"/>
-      <c r="B57" s="18"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="8" t="s">
         <v>49</v>
       </c>
@@ -74453,9 +74767,9 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A58" s="7"/>
-      <c r="B58" s="18"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="8" t="s">
         <v>50</v>
       </c>
@@ -74463,11 +74777,11 @@
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A59" s="7">
         <v>43</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="5" t="s">
         <v>43</v>
       </c>
@@ -74475,11 +74789,11 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A60" s="7">
         <v>44</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="5" t="s">
         <v>44</v>
       </c>
@@ -74487,11 +74801,11 @@
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A61" s="7">
         <v>45</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="5" t="s">
         <v>8</v>
       </c>
@@ -74499,11 +74813,11 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A62" s="7">
         <v>46</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="5" t="s">
         <v>57</v>
       </c>
@@ -74511,11 +74825,11 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A63" s="7">
         <v>47</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="7" t="s">
@@ -74525,11 +74839,11 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A64" s="7">
         <v>48</v>
       </c>
-      <c r="B64" s="16"/>
+      <c r="B64" s="18"/>
       <c r="C64" s="7" t="s">
         <v>52</v>
       </c>
@@ -74537,11 +74851,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A65" s="7">
         <v>49</v>
       </c>
-      <c r="B65" s="16"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="7" t="s">
         <v>103</v>
       </c>
@@ -74549,11 +74863,11 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A66" s="7">
         <v>50</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="7" t="s">
         <v>101</v>
       </c>
@@ -74561,11 +74875,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A67" s="7">
         <v>51</v>
       </c>
-      <c r="B67" s="16"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="7" t="s">
         <v>102</v>
       </c>
@@ -74573,11 +74887,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A68" s="7">
         <v>52</v>
       </c>
-      <c r="B68" s="16"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="7" t="s">
         <v>59</v>
       </c>
@@ -74585,11 +74899,11 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A69" s="7">
         <v>53</v>
       </c>
-      <c r="B69" s="16"/>
+      <c r="B69" s="18"/>
       <c r="C69" s="7" t="s">
         <v>54</v>
       </c>
@@ -74597,11 +74911,11 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A70" s="7">
         <v>54</v>
       </c>
-      <c r="B70" s="16"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="7" t="s">
         <v>53</v>
       </c>
@@ -74609,11 +74923,11 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A71" s="7">
         <v>55</v>
       </c>
-      <c r="B71" s="16"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="8" t="s">
         <v>55</v>
       </c>
@@ -74623,11 +74937,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A72" s="7">
         <v>56</v>
       </c>
-      <c r="B72" s="16"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="8" t="s">
         <v>56</v>
       </c>
@@ -74635,9 +74949,9 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
-    <row r="73" spans="1:6" ht="23.4" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" ht="23.25" x14ac:dyDescent="0.5">
       <c r="A73" s="7"/>
-      <c r="B73" s="16"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="5"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
